--- a/Data/oil_production_EC_2013_2023.xlsx
+++ b/Data/oil_production_EC_2013_2023.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E446A649-733F-448C-9FE9-A96B1D0EC041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geani\Box\Home Folder gnl13\Private\1 Academics\3 Time series\LeinesMartinez_ENV797_TSA_FinalProject\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544F6CE-B9DD-4194-B16F-4BA770CAE97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +114,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,12 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,14 +458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,19 +481,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41275</v>
       </c>
@@ -487,7 +504,7 @@
         <v>2013</v>
       </c>
       <c r="D2">
-        <v>15656415.66</v>
+        <v>15656417.829999998</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -499,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41306</v>
       </c>
@@ -510,7 +527,7 @@
         <v>2013</v>
       </c>
       <c r="D3">
-        <v>14262416.57</v>
+        <v>14262413.51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -522,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41334</v>
       </c>
@@ -533,7 +550,7 @@
         <v>2013</v>
       </c>
       <c r="D4">
-        <v>15631092.92</v>
+        <v>15631093.42</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -545,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41365</v>
       </c>
@@ -556,7 +573,7 @@
         <v>2013</v>
       </c>
       <c r="D5">
-        <v>15471797.43</v>
+        <v>15471801.33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -568,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>41395</v>
       </c>
@@ -579,7 +596,7 @@
         <v>2013</v>
       </c>
       <c r="D6">
-        <v>16166738.68</v>
+        <v>16166882.93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41426</v>
       </c>
@@ -602,7 +619,7 @@
         <v>2013</v>
       </c>
       <c r="D7">
-        <v>15721206.84</v>
+        <v>15721287.310000001</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -614,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41456</v>
       </c>
@@ -625,7 +642,7 @@
         <v>2013</v>
       </c>
       <c r="D8">
-        <v>16437548.77</v>
+        <v>16437446.560000004</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -637,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41487</v>
       </c>
@@ -648,7 +665,7 @@
         <v>2013</v>
       </c>
       <c r="D9">
-        <v>16636338.59</v>
+        <v>16634129.089999998</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -660,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41518</v>
       </c>
@@ -671,7 +688,7 @@
         <v>2013</v>
       </c>
       <c r="D10">
-        <v>16053559.300000001</v>
+        <v>16053297.929999998</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -683,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41548</v>
       </c>
@@ -694,7 +711,7 @@
         <v>2013</v>
       </c>
       <c r="D11">
-        <v>16736581.869999999</v>
+        <v>16736982.040000003</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -706,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41579</v>
       </c>
@@ -717,7 +734,7 @@
         <v>2013</v>
       </c>
       <c r="D12">
-        <v>16349955.83</v>
+        <v>16349715.310000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -729,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41609</v>
       </c>
@@ -740,7 +757,7 @@
         <v>2013</v>
       </c>
       <c r="D13">
-        <v>16995237.839000002</v>
+        <v>16995217.240000002</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -752,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41640</v>
       </c>
@@ -763,7 +780,7 @@
         <v>2014</v>
       </c>
       <c r="D14">
-        <v>17054283.309999999</v>
+        <v>17054303.5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -775,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41671</v>
       </c>
@@ -786,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="D15">
-        <v>15422176.09</v>
+        <v>15422175.929999996</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -798,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41699</v>
       </c>
@@ -809,7 +826,7 @@
         <v>2014</v>
       </c>
       <c r="D16">
-        <v>17255036.940000001</v>
+        <v>17255037.360000003</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -821,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41730</v>
       </c>
@@ -832,7 +849,7 @@
         <v>2014</v>
       </c>
       <c r="D17">
-        <v>16805652.48</v>
+        <v>16805653.029999997</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -844,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41760</v>
       </c>
@@ -855,7 +872,7 @@
         <v>2014</v>
       </c>
       <c r="D18">
-        <v>17182828.008000001</v>
+        <v>17182811.41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -867,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41791</v>
       </c>
@@ -878,7 +895,7 @@
         <v>2014</v>
       </c>
       <c r="D19">
-        <v>16658167.84</v>
+        <v>16658194.831</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -890,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41821</v>
       </c>
@@ -901,7 +918,7 @@
         <v>2014</v>
       </c>
       <c r="D20">
-        <v>17310189.280000001</v>
+        <v>17310189.289999984</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -913,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41852</v>
       </c>
@@ -924,7 +941,7 @@
         <v>2014</v>
       </c>
       <c r="D21">
-        <v>17382492.109999999</v>
+        <v>17310746.510000002</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -936,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41883</v>
       </c>
@@ -947,7 +964,7 @@
         <v>2014</v>
       </c>
       <c r="D22">
-        <v>16527544.67</v>
+        <v>16527543.950000003</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -959,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41913</v>
       </c>
@@ -970,7 +987,7 @@
         <v>2014</v>
       </c>
       <c r="D23">
-        <v>17274192.390000001</v>
+        <v>17274192.259999998</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -982,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41944</v>
       </c>
@@ -993,7 +1010,7 @@
         <v>2014</v>
       </c>
       <c r="D24">
-        <v>16884768.34</v>
+        <v>16884768.049999997</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1005,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41974</v>
       </c>
@@ -1016,7 +1033,7 @@
         <v>2014</v>
       </c>
       <c r="D25">
-        <v>17394034.149999999</v>
+        <v>17394030.680000003</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1028,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42005</v>
       </c>
@@ -1039,7 +1056,7 @@
         <v>2015</v>
       </c>
       <c r="D26">
-        <v>17289410.809999999</v>
+        <v>17289410.149999999</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1051,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42036</v>
       </c>
@@ -1062,7 +1079,7 @@
         <v>2015</v>
       </c>
       <c r="D27">
-        <v>15487524.08</v>
+        <v>15487523.690000001</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1074,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42064</v>
       </c>
@@ -1085,7 +1102,7 @@
         <v>2015</v>
       </c>
       <c r="D28">
-        <v>17134433.050000001</v>
+        <v>17134432.629999999</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1097,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42095</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>2015</v>
       </c>
       <c r="D29">
-        <v>16436799.07</v>
+        <v>16436798.000000002</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1120,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42125</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>2015</v>
       </c>
       <c r="D30">
-        <v>16838948.59</v>
+        <v>16838947.809999999</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1143,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42156</v>
       </c>
@@ -1154,7 +1171,7 @@
         <v>2015</v>
       </c>
       <c r="D31">
-        <v>16231324.720000001</v>
+        <v>16231323.580000002</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1166,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42186</v>
       </c>
@@ -1177,7 +1194,7 @@
         <v>2015</v>
       </c>
       <c r="D32">
-        <v>16671719.470000001</v>
+        <v>16671718.860000005</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1189,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42217</v>
       </c>
@@ -1200,7 +1217,7 @@
         <v>2015</v>
       </c>
       <c r="D33">
-        <v>16651097.5</v>
+        <v>16651096.520000003</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1212,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42248</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>2015</v>
       </c>
       <c r="D34">
-        <v>16169256.550000001</v>
+        <v>16169256.190000003</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1235,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42278</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>2015</v>
       </c>
       <c r="D35">
-        <v>16677525.560000001</v>
+        <v>16677525.279999997</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1258,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42309</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>2015</v>
       </c>
       <c r="D36">
-        <v>16110035.77</v>
+        <v>16110034.610000001</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1281,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42339</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>2015</v>
       </c>
       <c r="D37">
-        <v>16531549.380000001</v>
+        <v>16531548.780000005</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1304,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42370</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>2016</v>
       </c>
       <c r="D38">
-        <v>16560668.08</v>
+        <v>16560669.769999998</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1327,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42401</v>
       </c>
@@ -1338,7 +1355,7 @@
         <v>2016</v>
       </c>
       <c r="D39">
-        <v>15649244.35</v>
+        <v>15649243.479999997</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1350,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42430</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>2016</v>
       </c>
       <c r="D40">
-        <v>17096985.68</v>
+        <v>17096984.920000002</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1373,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>42461</v>
       </c>
@@ -1384,7 +1401,7 @@
         <v>2016</v>
       </c>
       <c r="D41">
-        <v>16652974.949999999</v>
+        <v>16652975.210000001</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1396,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42491</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>2016</v>
       </c>
       <c r="D42">
-        <v>17225677.960000001</v>
+        <v>17225677.770000003</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1419,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42522</v>
       </c>
@@ -1430,7 +1447,7 @@
         <v>2016</v>
       </c>
       <c r="D43">
-        <v>16501853.109999999</v>
+        <v>16501852.529999999</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1442,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42552</v>
       </c>
@@ -1453,19 +1470,19 @@
         <v>2016</v>
       </c>
       <c r="D44">
-        <v>16908930.489999998</v>
+        <v>16927899.039999995</v>
       </c>
       <c r="E44">
         <v>835.25</v>
       </c>
       <c r="F44">
-        <v>16909765.739999998</v>
+        <v>16908930.489999998</v>
       </c>
       <c r="G44">
         <v>4.9394534072356704E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42583</v>
       </c>
@@ -1476,19 +1493,19 @@
         <v>2016</v>
       </c>
       <c r="D45">
-        <v>16841614.454999998</v>
+        <v>17014777.300999999</v>
       </c>
       <c r="E45">
         <v>173162.40599999999</v>
       </c>
       <c r="F45">
-        <v>17014776.861000001</v>
+        <v>16841614.454999998</v>
       </c>
       <c r="G45">
         <v>1.0177177603598779</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42614</v>
       </c>
@@ -1499,19 +1516,19 @@
         <v>2016</v>
       </c>
       <c r="D46">
-        <v>16151167.432</v>
+        <v>16795863.580000002</v>
       </c>
       <c r="E46">
         <v>644696.27800000005</v>
       </c>
       <c r="F46">
-        <v>16795863.710000001</v>
+        <v>16151167.432</v>
       </c>
       <c r="G46">
         <v>3.8384228946568419</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42644</v>
       </c>
@@ -1522,19 +1539,19 @@
         <v>2016</v>
       </c>
       <c r="D47">
-        <v>16391076.093</v>
+        <v>17125608.540000003</v>
       </c>
       <c r="E47">
         <v>734532.76599999995</v>
       </c>
       <c r="F47">
-        <v>17125608.859000001</v>
+        <v>16391076.093</v>
       </c>
       <c r="G47">
         <v>4.2890899357074934</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42675</v>
       </c>
@@ -1545,19 +1562,19 @@
         <v>2016</v>
       </c>
       <c r="D48">
-        <v>15599135.092</v>
+        <v>16315249.640000001</v>
       </c>
       <c r="E48">
         <v>716114.76800000004</v>
       </c>
       <c r="F48">
-        <v>16315249.859999999</v>
+        <v>15599135.092</v>
       </c>
       <c r="G48">
         <v>4.3892356791647691</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42705</v>
       </c>
@@ -1568,19 +1585,19 @@
         <v>2016</v>
       </c>
       <c r="D49">
-        <v>16073294.316</v>
+        <v>16862696.730000004</v>
       </c>
       <c r="E49">
         <v>789402.28399999999</v>
       </c>
       <c r="F49">
-        <v>16862696.600000001</v>
+        <v>16073294.316</v>
       </c>
       <c r="G49">
         <v>4.6813525898342974</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42736</v>
       </c>
@@ -1591,19 +1608,19 @@
         <v>2017</v>
       </c>
       <c r="D50">
-        <v>15607093</v>
+        <v>16623709.140000002</v>
       </c>
       <c r="E50">
         <v>1016610</v>
       </c>
       <c r="F50">
-        <v>16623703</v>
+        <v>15607093</v>
       </c>
       <c r="G50">
         <v>6.1154244634904753</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42767</v>
       </c>
@@ -1614,19 +1631,19 @@
         <v>2017</v>
       </c>
       <c r="D51">
-        <v>13828530</v>
+        <v>14984273.394999983</v>
       </c>
       <c r="E51">
         <v>1155744</v>
       </c>
       <c r="F51">
-        <v>14984274</v>
+        <v>13828530</v>
       </c>
       <c r="G51">
         <v>7.7130463578015176</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42795</v>
       </c>
@@ -1637,19 +1654,19 @@
         <v>2017</v>
       </c>
       <c r="D52">
-        <v>15091007</v>
+        <v>16452784.060999999</v>
       </c>
       <c r="E52">
         <v>1361778</v>
       </c>
       <c r="F52">
-        <v>16452785</v>
+        <v>15091007</v>
       </c>
       <c r="G52">
         <v>8.2768844302043689</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42826</v>
       </c>
@@ -1660,19 +1677,19 @@
         <v>2017</v>
       </c>
       <c r="D53">
-        <v>14554586</v>
+        <v>15843669.612000002</v>
       </c>
       <c r="E53">
         <v>1289087</v>
       </c>
       <c r="F53">
-        <v>15843673</v>
+        <v>14554586</v>
       </c>
       <c r="G53">
         <v>8.1362888517075564</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42856</v>
       </c>
@@ -1683,19 +1700,19 @@
         <v>2017</v>
       </c>
       <c r="D54">
-        <v>15139081</v>
+        <v>16527703.872999998</v>
       </c>
       <c r="E54">
         <v>1388626</v>
       </c>
       <c r="F54">
-        <v>16527707</v>
+        <v>15139081</v>
       </c>
       <c r="G54">
         <v>8.4018067358043069</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42887</v>
       </c>
@@ -1706,19 +1723,19 @@
         <v>2017</v>
       </c>
       <c r="D55">
-        <v>14706678.5</v>
+        <v>16197208.451000003</v>
       </c>
       <c r="E55">
         <v>1490528</v>
       </c>
       <c r="F55">
-        <v>16197206.5</v>
+        <v>14706678.5</v>
       </c>
       <c r="G55">
         <v>9.2023769654353682</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42917</v>
       </c>
@@ -1729,19 +1746,19 @@
         <v>2017</v>
       </c>
       <c r="D56">
-        <v>15292723</v>
+        <v>16775421.157000002</v>
       </c>
       <c r="E56">
         <v>1482698</v>
       </c>
       <c r="F56">
-        <v>16775421</v>
+        <v>15292723</v>
       </c>
       <c r="G56">
         <v>8.8385143955552596</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42948</v>
       </c>
@@ -1752,19 +1769,19 @@
         <v>2017</v>
       </c>
       <c r="D57">
-        <v>15155562</v>
+        <v>16615270.476000017</v>
       </c>
       <c r="E57">
         <v>1459707</v>
       </c>
       <c r="F57">
-        <v>16615269</v>
+        <v>15155562</v>
       </c>
       <c r="G57">
         <v>8.7853347423986943</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42979</v>
       </c>
@@ -1775,19 +1792,19 @@
         <v>2017</v>
       </c>
       <c r="D58">
-        <v>14471217</v>
+        <v>15867669.527000001</v>
       </c>
       <c r="E58">
         <v>1396459</v>
       </c>
       <c r="F58">
-        <v>15867676</v>
+        <v>14471217</v>
       </c>
       <c r="G58">
         <v>8.8006523450567062</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43009</v>
       </c>
@@ -1798,19 +1815,19 @@
         <v>2017</v>
       </c>
       <c r="D59">
-        <v>14829916</v>
+        <v>16295277.074000001</v>
       </c>
       <c r="E59">
         <v>1465359</v>
       </c>
       <c r="F59">
-        <v>16295275</v>
+        <v>14829916</v>
       </c>
       <c r="G59">
         <v>8.9925392483403943</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43040</v>
       </c>
@@ -1821,19 +1838,19 @@
         <v>2017</v>
       </c>
       <c r="D60">
-        <v>14324972</v>
+        <v>15631167.422999999</v>
       </c>
       <c r="E60">
         <v>1306198</v>
       </c>
       <c r="F60">
-        <v>15631170</v>
+        <v>14324972</v>
       </c>
       <c r="G60">
         <v>8.3563674376262309</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43070</v>
       </c>
@@ -1844,19 +1861,19 @@
         <v>2017</v>
       </c>
       <c r="D61">
-        <v>14781522.5</v>
+        <v>16112935.878000006</v>
       </c>
       <c r="E61">
         <v>1331410</v>
       </c>
       <c r="F61">
-        <v>16112932.5</v>
+        <v>14781522.5</v>
       </c>
       <c r="G61">
         <v>8.2629899926658279</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43101</v>
       </c>
@@ -1867,19 +1884,19 @@
         <v>2018</v>
       </c>
       <c r="D62">
-        <v>14587612.5</v>
+        <v>15901123.171</v>
       </c>
       <c r="E62">
         <v>1313512</v>
       </c>
       <c r="F62">
-        <v>15901124.5</v>
+        <v>14587612.5</v>
       </c>
       <c r="G62">
         <v>8.2604975516039758</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43132</v>
       </c>
@@ -1890,19 +1907,19 @@
         <v>2018</v>
       </c>
       <c r="D63">
-        <v>13134211.5</v>
+        <v>14355301.033999998</v>
       </c>
       <c r="E63">
         <v>1221090</v>
       </c>
       <c r="F63">
-        <v>14355301.5</v>
+        <v>13134211.5</v>
       </c>
       <c r="G63">
         <v>8.5061954289152339</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43160</v>
       </c>
@@ -1913,19 +1930,19 @@
         <v>2018</v>
       </c>
       <c r="D64">
-        <v>14385473.6</v>
+        <v>15848869.432999998</v>
       </c>
       <c r="E64">
         <v>1463400</v>
       </c>
       <c r="F64">
-        <v>15848873.6</v>
+        <v>14385473.6</v>
       </c>
       <c r="G64">
         <v>9.2334637585853425</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43191</v>
       </c>
@@ -1936,19 +1953,19 @@
         <v>2018</v>
       </c>
       <c r="D65">
-        <v>14022712.6</v>
+        <v>15497959.440000003</v>
       </c>
       <c r="E65">
         <v>1475247</v>
       </c>
       <c r="F65">
-        <v>15497959.6</v>
+        <v>14022712.6</v>
       </c>
       <c r="G65">
         <v>9.5189756463166937</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43221</v>
       </c>
@@ -1959,19 +1976,19 @@
         <v>2018</v>
       </c>
       <c r="D66">
-        <v>14300347.4</v>
+        <v>15984738.983000003</v>
       </c>
       <c r="E66">
         <v>1684389</v>
       </c>
       <c r="F66">
-        <v>15984736.4</v>
+        <v>14300347.4</v>
       </c>
       <c r="G66">
         <v>10.53748374605664</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43252</v>
       </c>
@@ -1982,19 +1999,19 @@
         <v>2018</v>
       </c>
       <c r="D67">
-        <v>13752648.1</v>
+        <v>15512892.848999996</v>
       </c>
       <c r="E67">
         <v>1760244</v>
       </c>
       <c r="F67">
-        <v>15512892.1</v>
+        <v>13752648.1</v>
       </c>
       <c r="G67">
         <v>11.346975075008739</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43282</v>
       </c>
@@ -2005,19 +2022,19 @@
         <v>2018</v>
       </c>
       <c r="D68">
-        <v>14181203.1</v>
+        <v>16223568.166999998</v>
       </c>
       <c r="E68">
         <v>2042362</v>
       </c>
       <c r="F68">
-        <v>16223565.1</v>
+        <v>14181203.1</v>
       </c>
       <c r="G68">
         <v>12.588860632118401</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43313</v>
       </c>
@@ -2028,19 +2045,19 @@
         <v>2018</v>
       </c>
       <c r="D69">
-        <v>14180885.199999999</v>
+        <v>16439556.821999999</v>
       </c>
       <c r="E69">
         <v>2258669</v>
       </c>
       <c r="F69">
-        <v>16439554.199999999</v>
+        <v>14180885.199999999</v>
       </c>
       <c r="G69">
         <v>13.739235094343369</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43344</v>
       </c>
@@ -2051,19 +2068,19 @@
         <v>2018</v>
       </c>
       <c r="D70">
-        <v>13553219.9</v>
+        <v>15555344.928000001</v>
       </c>
       <c r="E70">
         <v>2002126</v>
       </c>
       <c r="F70">
-        <v>15555345.9</v>
+        <v>13553219.9</v>
       </c>
       <c r="G70">
         <v>12.87098347327654</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43374</v>
       </c>
@@ -2074,19 +2091,19 @@
         <v>2018</v>
       </c>
       <c r="D71">
-        <v>13898062.699999999</v>
+        <v>15918217.880000001</v>
       </c>
       <c r="E71">
         <v>2020150</v>
       </c>
       <c r="F71">
-        <v>15918212.699999999</v>
+        <v>13898062.699999999</v>
       </c>
       <c r="G71">
         <v>12.690809188647171</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43405</v>
       </c>
@@ -2097,19 +2114,19 @@
         <v>2018</v>
       </c>
       <c r="D72">
-        <v>13536059.4</v>
+        <v>15451849.741</v>
       </c>
       <c r="E72">
         <v>1915791</v>
       </c>
       <c r="F72">
-        <v>15451850.4</v>
+        <v>13536059.4</v>
       </c>
       <c r="G72">
         <v>12.398456821715021</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43435</v>
       </c>
@@ -2120,19 +2137,19 @@
         <v>2018</v>
       </c>
       <c r="D73">
-        <v>14050052.6</v>
+        <v>16103067.235000003</v>
       </c>
       <c r="E73">
         <v>2053014</v>
       </c>
       <c r="F73">
-        <v>16103066.6</v>
+        <v>14050052.6</v>
       </c>
       <c r="G73">
         <v>12.749211383128729</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43466</v>
       </c>
@@ -2143,19 +2160,19 @@
         <v>2019</v>
       </c>
       <c r="D74">
-        <v>14139532.379000001</v>
+        <v>16240368.774000002</v>
       </c>
       <c r="E74">
         <v>2100836.395</v>
       </c>
       <c r="F74">
-        <v>16240368.774</v>
+        <v>14139532.379000001</v>
       </c>
       <c r="G74">
         <v>12.935890953186551</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43497</v>
       </c>
@@ -2166,19 +2183,19 @@
         <v>2019</v>
       </c>
       <c r="D75">
-        <v>12945634.005999999</v>
+        <v>14934075.671999997</v>
       </c>
       <c r="E75">
         <v>1988441.666</v>
       </c>
       <c r="F75">
-        <v>14934075.672</v>
+        <v>12945634.005999999</v>
       </c>
       <c r="G75">
         <v>13.314795703949351</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43525</v>
       </c>
@@ -2189,19 +2206,19 @@
         <v>2019</v>
       </c>
       <c r="D76">
-        <v>14282999.573999999</v>
+        <v>16434544.004000003</v>
       </c>
       <c r="E76">
         <v>2151544.4300000002</v>
       </c>
       <c r="F76">
-        <v>16434544.004000001</v>
+        <v>14282999.573999999</v>
       </c>
       <c r="G76">
         <v>13.091597974828719</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43556</v>
       </c>
@@ -2212,19 +2229,19 @@
         <v>2019</v>
       </c>
       <c r="D77">
-        <v>13839250.223999999</v>
+        <v>15868573.385000004</v>
       </c>
       <c r="E77">
         <v>2029323.1610000001</v>
       </c>
       <c r="F77">
-        <v>15868573.385</v>
+        <v>13839250.223999999</v>
       </c>
       <c r="G77">
         <v>12.788315066294791</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43586</v>
       </c>
@@ -2235,19 +2252,19 @@
         <v>2019</v>
       </c>
       <c r="D78">
-        <v>14508716.251</v>
+        <v>16487759.054000001</v>
       </c>
       <c r="E78">
         <v>1979042.8030000001</v>
       </c>
       <c r="F78">
-        <v>16487759.054</v>
+        <v>14508716.251</v>
       </c>
       <c r="G78">
         <v>12.00310361473821</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43617</v>
       </c>
@@ -2258,19 +2275,19 @@
         <v>2019</v>
       </c>
       <c r="D79">
-        <v>14029871.006999999</v>
+        <v>15926697.948000001</v>
       </c>
       <c r="E79">
         <v>1896826.9410000001</v>
       </c>
       <c r="F79">
-        <v>15926697.948000001</v>
+        <v>14029871.006999999</v>
       </c>
       <c r="G79">
         <v>11.909731365491201</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
@@ -2281,19 +2298,19 @@
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>14560341.539999999</v>
+        <v>16781882.641999997</v>
       </c>
       <c r="E80">
         <v>2221541.102</v>
       </c>
       <c r="F80">
-        <v>16781882.642000001</v>
+        <v>14560341.539999999</v>
       </c>
       <c r="G80">
         <v>13.23773470111245</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43678</v>
       </c>
@@ -2304,19 +2321,19 @@
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>14652258.843</v>
+        <v>17057350.693</v>
       </c>
       <c r="E81">
         <v>2405091.85</v>
       </c>
       <c r="F81">
-        <v>17057350.693</v>
+        <v>14652258.843</v>
       </c>
       <c r="G81">
         <v>14.10003167131342</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43709</v>
       </c>
@@ -2327,19 +2344,19 @@
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>14030793.681</v>
+        <v>16407221.756000003</v>
       </c>
       <c r="E82">
         <v>2376428.0750000002</v>
       </c>
       <c r="F82">
-        <v>16407221.755999999</v>
+        <v>14030793.681</v>
       </c>
       <c r="G82">
         <v>14.484037031625769</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43739</v>
       </c>
@@ -2350,19 +2367,19 @@
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>12015960.929</v>
+        <v>14486200.566</v>
       </c>
       <c r="E83">
         <v>2470239.6370000001</v>
       </c>
       <c r="F83">
-        <v>14486200.566</v>
+        <v>12015960.929</v>
       </c>
       <c r="G83">
         <v>17.052363908296311</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43770</v>
       </c>
@@ -2373,19 +2390,19 @@
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>13950746.91</v>
+        <v>16390600.169000002</v>
       </c>
       <c r="E84">
         <v>2439853.2590000001</v>
       </c>
       <c r="F84">
-        <v>16390600.169</v>
+        <v>13950746.91</v>
       </c>
       <c r="G84">
         <v>14.88568590437928</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43800</v>
       </c>
@@ -2396,19 +2413,19 @@
         <v>2019</v>
       </c>
       <c r="D85">
-        <v>14444631.145</v>
+        <v>16800808.516000003</v>
       </c>
       <c r="E85">
         <v>2356177.3709999998</v>
       </c>
       <c r="F85">
-        <v>16800808.515999999</v>
+        <v>14444631.145</v>
       </c>
       <c r="G85">
         <v>14.024190376053211</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43831</v>
       </c>
@@ -2419,19 +2436,19 @@
         <v>2020</v>
       </c>
       <c r="D86">
-        <v>14336108.516000001</v>
+        <v>16574614.74</v>
       </c>
       <c r="E86">
         <v>2238506.2239999999</v>
       </c>
       <c r="F86">
-        <v>16574614.74</v>
+        <v>14336108.516000001</v>
       </c>
       <c r="G86">
         <v>13.505630502516279</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43862</v>
       </c>
@@ -2442,19 +2459,19 @@
         <v>2020</v>
       </c>
       <c r="D87">
-        <v>13569056.455</v>
+        <v>15560592.250000002</v>
       </c>
       <c r="E87">
         <v>1991535.7949999999</v>
       </c>
       <c r="F87">
-        <v>15560592.25</v>
+        <v>13569056.455</v>
       </c>
       <c r="G87">
         <v>12.79858608852115</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43891</v>
       </c>
@@ -2465,19 +2482,19 @@
         <v>2020</v>
       </c>
       <c r="D88">
-        <v>14664351.232000001</v>
+        <v>16760166.16</v>
       </c>
       <c r="E88">
         <v>2095814.9280000001</v>
       </c>
       <c r="F88">
-        <v>16760166.16</v>
+        <v>14664351.232000001</v>
       </c>
       <c r="G88">
         <v>12.50473836591128</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43922</v>
       </c>
@@ -2488,19 +2505,19 @@
         <v>2020</v>
       </c>
       <c r="D89">
-        <v>5755505.9199999999</v>
+        <v>6297112.4699999997</v>
       </c>
       <c r="E89">
         <v>541606.55000000005</v>
       </c>
       <c r="F89">
-        <v>6297112.4699999997</v>
+        <v>5755505.9199999999</v>
       </c>
       <c r="G89">
         <v>8.6008714721272881</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43952</v>
       </c>
@@ -2511,19 +2528,19 @@
         <v>2020</v>
       </c>
       <c r="D90">
-        <v>9280724.2019999996</v>
+        <v>10390183.819999998</v>
       </c>
       <c r="E90">
         <v>1109459.618</v>
       </c>
       <c r="F90">
-        <v>10390183.82</v>
+        <v>9280724.2019999996</v>
       </c>
       <c r="G90">
         <v>10.67795947810286</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43983</v>
       </c>
@@ -2534,19 +2551,19 @@
         <v>2020</v>
       </c>
       <c r="D91">
-        <v>13522012.163000001</v>
+        <v>15435302.359999998</v>
       </c>
       <c r="E91">
         <v>1913290.1969999999</v>
       </c>
       <c r="F91">
-        <v>15435302.359999999</v>
+        <v>13522012.163000001</v>
       </c>
       <c r="G91">
         <v>12.3955472486125</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44013</v>
       </c>
@@ -2557,19 +2574,19 @@
         <v>2020</v>
       </c>
       <c r="D92">
-        <v>14229910.856000001</v>
+        <v>16163688.089999998</v>
       </c>
       <c r="E92">
         <v>1933777.2339999999</v>
       </c>
       <c r="F92">
-        <v>16163688.09</v>
+        <v>14229910.856000001</v>
       </c>
       <c r="G92">
         <v>11.963712880579349</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44044</v>
       </c>
@@ -2580,19 +2597,19 @@
         <v>2020</v>
       </c>
       <c r="D93">
-        <v>14122596.463</v>
+        <v>15979480.210000003</v>
       </c>
       <c r="E93">
         <v>1856883.747</v>
       </c>
       <c r="F93">
-        <v>15979480.210000001</v>
+        <v>14122596.463</v>
       </c>
       <c r="G93">
         <v>11.62042646317092</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44075</v>
       </c>
@@ -2603,19 +2620,19 @@
         <v>2020</v>
       </c>
       <c r="D94">
-        <v>13580913.789000001</v>
+        <v>15347536.890000001</v>
       </c>
       <c r="E94">
         <v>1766623.101</v>
       </c>
       <c r="F94">
-        <v>15347536.890000001</v>
+        <v>13580913.789000001</v>
       </c>
       <c r="G94">
         <v>11.510792341871349</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44105</v>
       </c>
@@ -2626,19 +2643,19 @@
         <v>2020</v>
       </c>
       <c r="D95">
-        <v>13904837.169</v>
+        <v>15756826.750000002</v>
       </c>
       <c r="E95">
         <v>1851989.581</v>
       </c>
       <c r="F95">
-        <v>15756826.75</v>
+        <v>13904837.169</v>
       </c>
       <c r="G95">
         <v>11.753569486952699</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44136</v>
       </c>
@@ -2649,19 +2666,19 @@
         <v>2020</v>
       </c>
       <c r="D96">
-        <v>13526067.204</v>
+        <v>15319556.17</v>
       </c>
       <c r="E96">
         <v>1793488.966</v>
       </c>
       <c r="F96">
-        <v>15319556.17</v>
+        <v>13526067.204</v>
       </c>
       <c r="G96">
         <v>11.707186201073871</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44166</v>
       </c>
@@ -2672,19 +2689,19 @@
         <v>2020</v>
       </c>
       <c r="D97">
-        <v>13961885.578</v>
+        <v>15864661.640000001</v>
       </c>
       <c r="E97">
         <v>1904188.5619999999</v>
       </c>
       <c r="F97">
-        <v>15866074.140000001</v>
+        <v>13961885.578</v>
       </c>
       <c r="G97">
         <v>12.001636606495779</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44197</v>
       </c>
@@ -2695,19 +2712,19 @@
         <v>2021</v>
       </c>
       <c r="D98">
-        <v>13878612.929</v>
+        <v>15766134.33</v>
       </c>
       <c r="E98">
         <v>1887521.4010000001</v>
       </c>
       <c r="F98">
-        <v>15766134.33</v>
+        <v>13878612.929</v>
       </c>
       <c r="G98">
         <v>11.971998725194171</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44228</v>
       </c>
@@ -2718,19 +2735,19 @@
         <v>2021</v>
       </c>
       <c r="D99">
-        <v>12365856.444</v>
+        <v>14053992.060000001</v>
       </c>
       <c r="E99">
         <v>1688135.6159999999</v>
       </c>
       <c r="F99">
-        <v>14053992.060000001</v>
+        <v>12365856.444</v>
       </c>
       <c r="G99">
         <v>12.01178717614844</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44256</v>
       </c>
@@ -2741,19 +2758,19 @@
         <v>2021</v>
       </c>
       <c r="D100">
-        <v>13746065.096000001</v>
+        <v>15576904.870000003</v>
       </c>
       <c r="E100">
         <v>1830839.774</v>
       </c>
       <c r="F100">
-        <v>15576904.869999999</v>
+        <v>13746065.096000001</v>
       </c>
       <c r="G100">
         <v>11.753553027893661</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44287</v>
       </c>
@@ -2764,19 +2781,19 @@
         <v>2021</v>
       </c>
       <c r="D101">
-        <v>13227924.755000001</v>
+        <v>14977519.480000002</v>
       </c>
       <c r="E101">
         <v>1749594.7250000001</v>
       </c>
       <c r="F101">
-        <v>14977519.48</v>
+        <v>13227924.755000001</v>
       </c>
       <c r="G101">
         <v>11.681471870801399</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44317</v>
       </c>
@@ -2787,19 +2804,19 @@
         <v>2021</v>
       </c>
       <c r="D102">
-        <v>13671395.585000001</v>
+        <v>15449355.35</v>
       </c>
       <c r="E102">
         <v>1777959.7649999999</v>
       </c>
       <c r="F102">
-        <v>15449355.35</v>
+        <v>13671395.585000001</v>
       </c>
       <c r="G102">
         <v>11.508310377494171</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44348</v>
       </c>
@@ -2810,19 +2827,19 @@
         <v>2021</v>
       </c>
       <c r="D103">
-        <v>13143014.335000001</v>
+        <v>14814709.410000002</v>
       </c>
       <c r="E103">
         <v>1671694.5179999999</v>
       </c>
       <c r="F103">
-        <v>14814708.853</v>
+        <v>13143014.335000001</v>
       </c>
       <c r="G103">
         <v>11.28401870456927</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44378</v>
       </c>
@@ -2833,19 +2850,19 @@
         <v>2021</v>
       </c>
       <c r="D104">
-        <v>13558159.387</v>
+        <v>15278934.07</v>
       </c>
       <c r="E104">
         <v>1720774.5530000001</v>
       </c>
       <c r="F104">
-        <v>15278933.939999999</v>
+        <v>13558159.387</v>
       </c>
       <c r="G104">
         <v>11.262399325485919</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44409</v>
       </c>
@@ -2856,19 +2873,19 @@
         <v>2021</v>
       </c>
       <c r="D105">
-        <v>13435848.390000001</v>
+        <v>15030467.606999999</v>
       </c>
       <c r="E105">
         <v>1594619.59</v>
       </c>
       <c r="F105">
-        <v>15030467.98</v>
+        <v>13435848.390000001</v>
       </c>
       <c r="G105">
         <v>10.609247776728241</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44440</v>
       </c>
@@ -2879,19 +2896,19 @@
         <v>2021</v>
       </c>
       <c r="D106">
-        <v>12952215.771</v>
+        <v>14550758.65</v>
       </c>
       <c r="E106">
         <v>1598542.879</v>
       </c>
       <c r="F106">
-        <v>14550758.65</v>
+        <v>12952215.771</v>
       </c>
       <c r="G106">
         <v>10.985976177950009</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44470</v>
       </c>
@@ -2902,19 +2919,19 @@
         <v>2021</v>
       </c>
       <c r="D107">
-        <v>13373301.147</v>
+        <v>14918166.360000001</v>
       </c>
       <c r="E107">
         <v>1543954.993</v>
       </c>
       <c r="F107">
-        <v>14917256.140000001</v>
+        <v>13373301.147</v>
       </c>
       <c r="G107">
         <v>10.35012725202156</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44501</v>
       </c>
@@ -2925,19 +2942,19 @@
         <v>2021</v>
       </c>
       <c r="D108">
-        <v>12986132.225</v>
+        <v>14547859.489999998</v>
       </c>
       <c r="E108">
         <v>1560628.835</v>
       </c>
       <c r="F108">
-        <v>14546761.060000001</v>
+        <v>12986132.225</v>
       </c>
       <c r="G108">
         <v>10.72835958852273</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44531</v>
       </c>
@@ -2948,19 +2965,19 @@
         <v>2021</v>
       </c>
       <c r="D109">
-        <v>7097249.5559999999</v>
+        <v>7636824.9500000002</v>
       </c>
       <c r="E109">
         <v>538533.63400000008</v>
       </c>
       <c r="F109">
-        <v>7635783.1899999985</v>
+        <v>7097249.5559999999</v>
       </c>
       <c r="G109">
         <v>7.0527622458594204</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44562</v>
       </c>
@@ -2971,19 +2988,19 @@
         <v>2022</v>
       </c>
       <c r="D110">
-        <v>12678839.115</v>
+        <v>14135680.670000006</v>
       </c>
       <c r="E110">
         <v>1456841.5549999999</v>
       </c>
       <c r="F110">
-        <v>14135680.67</v>
+        <v>12678839.115</v>
       </c>
       <c r="G110">
         <v>10.30612949606197</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44593</v>
       </c>
@@ -2994,19 +3011,19 @@
         <v>2022</v>
       </c>
       <c r="D111">
-        <v>12189691.498</v>
+        <v>13394290.16</v>
       </c>
       <c r="E111">
         <v>1204598.662</v>
       </c>
       <c r="F111">
-        <v>13394290.16</v>
+        <v>12189691.498</v>
       </c>
       <c r="G111">
         <v>8.9933743976769271</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44621</v>
       </c>
@@ -3017,19 +3034,19 @@
         <v>2022</v>
       </c>
       <c r="D112">
-        <v>13662223.389</v>
+        <v>15332660.680000003</v>
       </c>
       <c r="E112">
         <v>1669926.341</v>
       </c>
       <c r="F112">
-        <v>15332149.73</v>
+        <v>13662223.389</v>
       </c>
       <c r="G112">
         <v>10.891664707216499</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44652</v>
       </c>
@@ -3040,19 +3057,19 @@
         <v>2022</v>
       </c>
       <c r="D113">
-        <v>13315126.886</v>
+        <v>14912530.850000003</v>
       </c>
       <c r="E113">
         <v>1596696.554</v>
       </c>
       <c r="F113">
-        <v>14911823.439999999</v>
+        <v>13315126.886</v>
       </c>
       <c r="G113">
         <v>10.707587575889381</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44682</v>
       </c>
@@ -3063,19 +3080,19 @@
         <v>2022</v>
       </c>
       <c r="D114">
-        <v>13736762.950999999</v>
+        <v>15343315.910000002</v>
       </c>
       <c r="E114">
         <v>1605632.449</v>
       </c>
       <c r="F114">
-        <v>15342395.4</v>
+        <v>13736762.950999999</v>
       </c>
       <c r="G114">
         <v>10.465330915666531</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44713</v>
       </c>
@@ -3086,19 +3103,19 @@
         <v>2022</v>
       </c>
       <c r="D115">
-        <v>10690691.995999999</v>
+        <v>12261848.889999997</v>
       </c>
       <c r="E115">
         <v>1571156.8940000001</v>
       </c>
       <c r="F115">
-        <v>12261848.890000001</v>
+        <v>10690691.995999999</v>
       </c>
       <c r="G115">
         <v>12.81337674354589</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44743</v>
       </c>
@@ -3109,19 +3126,19 @@
         <v>2022</v>
       </c>
       <c r="D116">
-        <v>13355196.239</v>
+        <v>14963142.090000002</v>
       </c>
       <c r="E116">
         <v>1607293.5009999999</v>
       </c>
       <c r="F116">
-        <v>14962489.74</v>
+        <v>13355196.239</v>
       </c>
       <c r="G116">
         <v>10.74215273613949</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44774</v>
       </c>
@@ -3132,19 +3149,19 @@
         <v>2022</v>
       </c>
       <c r="D117">
-        <v>13725672.077</v>
+        <v>15326322.57</v>
       </c>
       <c r="E117">
         <v>1600149.4129999999</v>
       </c>
       <c r="F117">
-        <v>15325821.49</v>
+        <v>13725672.077</v>
       </c>
       <c r="G117">
         <v>10.440872054030431</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44805</v>
       </c>
@@ -3155,19 +3172,19 @@
         <v>2022</v>
       </c>
       <c r="D118">
-        <v>13196879.09</v>
+        <v>14708728.050000001</v>
       </c>
       <c r="E118">
         <v>1511848.96</v>
       </c>
       <c r="F118">
-        <v>14708728.050000001</v>
+        <v>13196879.09</v>
       </c>
       <c r="G118">
         <v>10.27858394594494</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44835</v>
       </c>
@@ -3178,19 +3195,19 @@
         <v>2022</v>
       </c>
       <c r="D119">
-        <v>13689888.806</v>
+        <v>15284365.92</v>
       </c>
       <c r="E119">
         <v>1594477.1140000001</v>
       </c>
       <c r="F119">
-        <v>15284365.92</v>
+        <v>13689888.806</v>
       </c>
       <c r="G119">
         <v>10.432078912175109</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44866</v>
       </c>
@@ -3201,19 +3218,19 @@
         <v>2022</v>
       </c>
       <c r="D120">
-        <v>13222422.4</v>
+        <v>14675726.82</v>
       </c>
       <c r="E120">
         <v>1452478.32</v>
       </c>
       <c r="F120">
-        <v>14674900.720000001</v>
+        <v>13222422.4</v>
       </c>
       <c r="G120">
         <v>9.8977045754078539</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44896</v>
       </c>
@@ -3224,19 +3241,19 @@
         <v>2022</v>
       </c>
       <c r="D121">
-        <v>13607986.664000001</v>
+        <v>15210516.639999999</v>
       </c>
       <c r="E121">
         <v>1602529.976</v>
       </c>
       <c r="F121">
-        <v>15210516.640000001</v>
+        <v>13607986.664000001</v>
       </c>
       <c r="G121">
         <v>10.53567090407522</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44927</v>
       </c>
@@ -3247,19 +3264,19 @@
         <v>2023</v>
       </c>
       <c r="D122">
-        <v>13543366.347999999</v>
+        <v>15175120.570000002</v>
       </c>
       <c r="E122">
         <v>1631411.942</v>
       </c>
       <c r="F122">
-        <v>15174778.289999999</v>
+        <v>13543366.347999999</v>
       </c>
       <c r="G122">
         <v>10.75081237315395</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44958</v>
       </c>
@@ -3270,19 +3287,19 @@
         <v>2023</v>
       </c>
       <c r="D123">
-        <v>11145361.586999999</v>
+        <v>12476166.889999997</v>
       </c>
       <c r="E123">
         <v>1330805.3030000001</v>
       </c>
       <c r="F123">
-        <v>12476166.890000001</v>
+        <v>11145361.586999999</v>
       </c>
       <c r="G123">
         <v>10.66678022772105</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44986</v>
       </c>
@@ -3293,19 +3310,19 @@
         <v>2023</v>
       </c>
       <c r="D124">
-        <v>12375093.77</v>
+        <v>13843299.09</v>
       </c>
       <c r="E124">
         <v>1467529.49</v>
       </c>
       <c r="F124">
-        <v>13842623.26</v>
+        <v>12375093.77</v>
       </c>
       <c r="G124">
         <v>10.601527343741351</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45017</v>
       </c>
@@ -3316,19 +3333,19 @@
         <v>2023</v>
       </c>
       <c r="D125">
-        <v>12511581.248</v>
+        <v>14156106.440000001</v>
       </c>
       <c r="E125">
         <v>1644007.2120000001</v>
       </c>
       <c r="F125">
-        <v>14155588.460000001</v>
+        <v>12511581.248</v>
       </c>
       <c r="G125">
         <v>11.61383870861699</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45047</v>
       </c>
@@ -3339,19 +3356,19 @@
         <v>2023</v>
       </c>
       <c r="D126">
-        <v>12980370.914000001</v>
+        <v>14693473.780000001</v>
       </c>
       <c r="E126">
         <v>1713102.8659999999</v>
       </c>
       <c r="F126">
-        <v>14693473.779999999</v>
+        <v>12980370.914000001</v>
       </c>
       <c r="G126">
         <v>11.658937101257751</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45078</v>
       </c>
@@ -3362,19 +3379,19 @@
         <v>2023</v>
       </c>
       <c r="D127">
-        <v>12514167.778999999</v>
+        <v>14200484.310000001</v>
       </c>
       <c r="E127">
         <v>1685794.0009999999</v>
       </c>
       <c r="F127">
-        <v>14199961.779999999</v>
+        <v>12514167.778999999</v>
       </c>
       <c r="G127">
         <v>11.871820693027249</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45108</v>
       </c>
@@ -3385,19 +3402,19 @@
         <v>2023</v>
       </c>
       <c r="D128">
-        <v>13040723.528999999</v>
+        <v>14811764.329999998</v>
       </c>
       <c r="E128">
         <v>1770745.1410000001</v>
       </c>
       <c r="F128">
-        <v>14811468.67</v>
+        <v>13040723.528999999</v>
       </c>
       <c r="G128">
         <v>11.95522996707659</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45139</v>
       </c>
@@ -3408,19 +3425,19 @@
         <v>2023</v>
       </c>
       <c r="D129">
-        <v>13132765.407</v>
+        <v>14908767.689999999</v>
       </c>
       <c r="E129">
         <v>1775683.203</v>
       </c>
       <c r="F129">
-        <v>14908448.609999999</v>
+        <v>13132765.407</v>
       </c>
       <c r="G129">
         <v>11.910583384302919</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45170</v>
       </c>
@@ -3431,19 +3448,19 @@
         <v>2023</v>
       </c>
       <c r="D130">
-        <v>12760015.291999999</v>
+        <v>14482672.920000002</v>
       </c>
       <c r="E130">
         <v>1722398.7879999999</v>
       </c>
       <c r="F130">
-        <v>14482414.08</v>
+        <v>12760015.291999999</v>
       </c>
       <c r="G130">
         <v>11.89303646813004</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45200</v>
       </c>
@@ -3454,19 +3471,19 @@
         <v>2023</v>
       </c>
       <c r="D131">
-        <v>13172931.071</v>
+        <v>14957003.350000001</v>
       </c>
       <c r="E131">
         <v>1783257.469</v>
       </c>
       <c r="F131">
-        <v>14956188.539999999</v>
+        <v>13172931.071</v>
       </c>
       <c r="G131">
         <v>11.92320800336741</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45231</v>
       </c>
@@ -3477,42 +3494,44 @@
         <v>2023</v>
       </c>
       <c r="D132">
-        <v>13011182.709000001</v>
+        <v>14702043.290000003</v>
       </c>
       <c r="E132">
         <v>1690860.581</v>
       </c>
       <c r="F132">
-        <v>14702043.289999999</v>
+        <v>13011182.709000001</v>
       </c>
       <c r="G132">
         <v>11.500854321045869</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45261</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>2023</v>
       </c>
       <c r="D133">
-        <v>13403656.267999999</v>
+        <v>15068240.145</v>
       </c>
       <c r="E133">
         <v>1664583.8770000001</v>
       </c>
       <c r="F133">
-        <v>15068240.145</v>
+        <v>13403656.267999999</v>
       </c>
       <c r="G133">
         <v>11.04696939378384</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>